--- a/biology/Botanique/Cassiope_tétragone/Cassiope_tétragone.xlsx
+++ b/biology/Botanique/Cassiope_tétragone/Cassiope_tétragone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassiope_t%C3%A9tragone</t>
+          <t>Cassiope_tétragone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassiope tetragona est une espèce de plante à fleurs du genre Cassiope appartenant à la famille des Ericaceae que l'on trouve dans les régions arctiques du nord de la Scandinavie, à l'île de Spitzberg, dans la péninsule de Taïmyr, dans les régions boréales de la Russie, de l'Alaska, du Canada et du Groenland. Elle a d'abord été décrite par Carl von Linné sous le nom d'Andromeda tetragona dans son ouvrage Flora Lapponica en 1737, puis dans Species plantarum en 1753. Elle a été intégrée avec d'autres espèces dans le nouveau genre Cassiope par David Don en 1834.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassiope_t%C3%A9tragone</t>
+          <t>Cassiope_tétragone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce typique de la toundra arctique et subarctique est une petite plante vivace poussant en buissons nains densément branchus dont les tiges mesurent entre 8 et 20 cm. Ses feuilles nervurées possèdent un pédoncule long et arqué. Ses fleurs aux pétales de couleur blanche et aux sépales de couleur rougeâtre se présentent en forme de clochettes solitaires.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassiope_t%C3%A9tragone</t>
+          <t>Cassiope_tétragone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cassiope tetragona subsp. tetragona (L.) D.Don, dans les régions arctiques
-Cassiope tetragona subsp. saximontana (Small) A.E. Porsild[2], plus au sud dans les montagnes du nord de l'Amérique du Nord</t>
+Cassiope tetragona subsp. saximontana (Small) A.E. Porsild, plus au sud dans les montagnes du nord de l'Amérique du Nord</t>
         </is>
       </c>
     </row>
